--- a/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62cc9ac9674436fa/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62cc9ac9674436fa/デスクトップ/Java/colpro_workspace/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7FC31120-C9FE-4B39-A61D-B331425B6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53FEB4B-2DD0-489D-AAC7-693D3FEB588A}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{7FC31120-C9FE-4B39-A61D-B331425B6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55EC7112-35A1-440A-9E27-5817D27029B5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="832" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="0" windowWidth="22752" windowHeight="12168" tabRatio="832" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="UT-USER02-B-010" sheetId="4" r:id="rId4"/>
     <sheet name="UT-USER02-B-013" sheetId="5" r:id="rId5"/>
     <sheet name="UT-USER02-B-014" sheetId="6" r:id="rId6"/>
-    <sheet name="ショット-2" sheetId="8" r:id="rId7"/>
-    <sheet name="UT-USER02-B-023" sheetId="10" r:id="rId8"/>
-    <sheet name="UT-USER02-B-025" sheetId="14" r:id="rId9"/>
-    <sheet name="UT-USER02-B-028" sheetId="11" r:id="rId10"/>
-    <sheet name="UT-USER02-B-031" sheetId="12" r:id="rId11"/>
+    <sheet name="UT-USER02-B-017" sheetId="15" r:id="rId7"/>
+    <sheet name="UT-USER02-B-018" sheetId="16" r:id="rId8"/>
+    <sheet name="UT-USER02-B-019" sheetId="8" r:id="rId9"/>
+    <sheet name="UT-USER02-B-023" sheetId="10" r:id="rId10"/>
+    <sheet name="UT-USER02-B-025" sheetId="14" r:id="rId11"/>
+    <sheet name="UT-USER02-B-028" sheetId="11" r:id="rId12"/>
+    <sheet name="UT-USER02-B-031" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UT-USER02-B-003</t>
     <phoneticPr fontId="1"/>
@@ -72,18 +74,6 @@
   </si>
   <si>
     <t>UT-USER02-B-034</t>
-  </si>
-  <si>
-    <t>UT-USER02-B-017</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-018</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UT-USER02-B-019</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -769,22 +759,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123356</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658709</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>37043</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D479E682-0EA6-5B2F-87BE-FEDC8FB17C5F}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1391E798-7D1C-3A50-8B44-DEC0C824D4F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -800,8 +790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="144780" y="30480"/>
-          <a:ext cx="7354736" cy="3435563"/>
+          <a:off x="182880" y="263374"/>
+          <a:ext cx="7181429" cy="3356126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -810,25 +800,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C174D00C-FC28-450F-8CA4-C4C3A9764BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="2247900"/>
+          <a:ext cx="3482340" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205741</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57417</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>203127</xdr:rowOff>
+      <xdr:colOff>243841</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D135F249-A64B-79AE-9990-05D66A11EA4E}"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E04D179-21FA-A78F-72BA-57D389228B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,6 +900,258 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="243841" y="3802381"/>
+          <a:ext cx="7232194" cy="3916679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649602</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A8FDE8-1ECB-479F-A386-94A31E2BC232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="60960"/>
+          <a:ext cx="7355202" cy="3445087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A37CC7-B825-41C7-B120-869584465D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3223260" y="2057400"/>
+          <a:ext cx="3368040" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB0CC17-0DF0-2241-EA64-438CBCB69834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3787140"/>
+          <a:ext cx="7353300" cy="3104726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123356</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D479E682-0EA6-5B2F-87BE-FEDC8FB17C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144780" y="30480"/>
+          <a:ext cx="7354736" cy="3435563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205741</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57417</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D135F249-A64B-79AE-9990-05D66A11EA4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="205741" y="3596640"/>
           <a:ext cx="5886716" cy="3464487"/>
         </a:xfrm>
@@ -857,7 +1165,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1715,10 +2023,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F00D65F-172E-EE5A-DFEF-92864E685B96}"/>
+        <xdr:cNvPr id="2" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A125F20-2C4E-4197-A06C-87584837E3E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,23 +2054,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4EE699-6E0F-8D2B-A92D-E2893794EB82}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE1A411-8C04-482A-AA3B-12C0D37F34DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,8 +2078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10043160" y="1798320"/>
-          <a:ext cx="1325880" cy="289560"/>
+          <a:off x="5295900" y="2606040"/>
+          <a:ext cx="274320" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,25 +2118,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416967</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>218024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA051F47-A44F-4665-B47F-4477E7F9E1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="274320"/>
+          <a:ext cx="9599067" cy="4515704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F16BB0-C737-E461-B059-1B08A843818F}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B51543B-D847-47EA-B7FC-637FCD8AF88D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,218 +2193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="2606040"/>
-          <a:ext cx="175260" cy="205740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>cv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F717D8A9-6068-4C14-A8C0-076C2DFB1A50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5570220" y="2621280"/>
-          <a:ext cx="91440" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>cv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AEE0D1-3ACF-4E4C-8095-CEC0F53B242B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5707380" y="2628900"/>
-          <a:ext cx="121920" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>cv</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53318D70-E2BF-43CA-BCE3-318EDB64E8ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10027920" y="2468880"/>
-          <a:ext cx="1325880" cy="289560"/>
+          <a:off x="5547360" y="2628900"/>
+          <a:ext cx="129540" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2055,7 +2202,7 @@
         <a:noFill/>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2086,25 +2233,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416967</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>218024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F00D65F-172E-EE5A-DFEF-92864E685B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="274320"/>
+          <a:ext cx="9599067" cy="4515704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEF114A-AEA6-44A5-AF0D-BFA21AD1E48A}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4EE699-6E0F-8D2B-A92D-E2893794EB82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,8 +2308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10043160" y="3131820"/>
-          <a:ext cx="1325880" cy="289560"/>
+          <a:off x="5654040" y="2606040"/>
+          <a:ext cx="182880" cy="213360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2121,7 +2317,7 @@
         <a:noFill/>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2152,501 +2348,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600D4C5F-9733-33AF-F7D0-6C898CDF6EA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="7400925" y="-36195"/>
-          <a:ext cx="662940" cy="4621530"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657CAD8E-DFE9-D71B-C48C-59DDA6EFBBDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7673340" y="906780"/>
-          <a:ext cx="464820" cy="4274820"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="コネクタ: カギ線 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C525BA2-6EA3-D9D4-E495-7F73E3C9C1DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="0"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8077200" y="7620"/>
-          <a:ext cx="152400" cy="5074920"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 250000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>658709</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1391E798-7D1C-3A50-8B44-DEC0C824D4F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="182880" y="263374"/>
-          <a:ext cx="7181429" cy="3356126"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C174D00C-FC28-450F-8CA4-C4C3A9764BB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3406140" y="2247900"/>
-          <a:ext cx="3482340" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>243841</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>99875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E04D179-21FA-A78F-72BA-57D389228B92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="243841" y="3802381"/>
-          <a:ext cx="7232194" cy="3916679"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>649602</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>77047</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A8FDE8-1ECB-479F-A386-94A31E2BC232}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="60960"/>
-          <a:ext cx="7355202" cy="3445087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A37CC7-B825-41C7-B120-869584465D7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3223260" y="2057400"/>
-          <a:ext cx="3368040" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB0CC17-0DF0-2241-EA64-438CBCB69834}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3787140"/>
-          <a:ext cx="7353300" cy="3104726"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3021,6 +2727,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122443EF-38FD-4AB3-A1FC-5176F5A434B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACBC192-B762-4820-ABD3-8877B707E84B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65D193A-7337-4995-81E7-19BDA0A69581}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3036,7 +2774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9245839-FD90-4088-BA8B-87BF4D406ED7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3127,43 +2865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED7CE3-8C2E-45A0-A918-BA6E3852CF2F}">
-  <dimension ref="P9:P15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="9" spans="16:16">
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="16:16">
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="16:16">
-      <c r="P15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122443EF-38FD-4AB3-A1FC-5176F5A434B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B93633-95FA-4006-9516-D1BCBFA28C5C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3174,12 +2880,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACBC192-B762-4820-ABD3-8877B707E84B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2B33A-135E-4B82-BDCA-7FFD70FBF838}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED7CE3-8C2E-45A0-A918-BA6E3852CF2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{7FC31120-C9FE-4B39-A61D-B331425B6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55EC7112-35A1-440A-9E27-5817D27029B5}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="0" windowWidth="22752" windowHeight="12168" tabRatio="832" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="768" windowWidth="22752" windowHeight="12168" tabRatio="832" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -2901,7 +2901,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
